--- a/MySQL Table Generator/TableDesign_Pakkar.xlsx
+++ b/MySQL Table Generator/TableDesign_Pakkar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Islam\World\01_STZ\DataLine\Github\Internal\MySQL Table Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{0A77F0BC-52F3-474A-BC2D-5363F6865B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79E644C9-116D-4E01-B434-D96DB00828A2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0E48AA-BAF5-44B6-8407-5F36FBC62491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{182BECEF-A2D9-4B2C-A341-9F1C7EE47CD6}"/>
   </bookViews>
@@ -18,28 +18,17 @@
     <sheet name="tdailyproduction" sheetId="8" r:id="rId3"/>
     <sheet name="tinitialtarget" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="37">
   <si>
     <t>DataTypes</t>
   </si>
@@ -144,13 +133,19 @@
   </si>
   <si>
     <t>To Date</t>
+  </si>
+  <si>
+    <t>Sno</t>
+  </si>
+  <si>
+    <t>S No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,13 +207,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,8 +357,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86E91D9C-77F2-4FE7-A1E3-0B66B3177001}" name="Table263" displayName="Table263" ref="A1:G7" totalsRowShown="0">
-  <autoFilter ref="A1:G7" xr:uid="{8AB8FB23-609C-4CD8-A0AC-E414C0C2AAF9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86E91D9C-77F2-4FE7-A1E3-0B66B3177001}" name="Table263" displayName="Table263" ref="A1:G8" totalsRowShown="0">
+  <autoFilter ref="A1:G8" xr:uid="{8AB8FB23-609C-4CD8-A0AC-E414C0C2AAF9}"/>
   <tableColumns count="7">
     <tableColumn id="4" xr3:uid="{7C9EDFE4-BDDD-445E-AEFD-92B26BCF3C26}" name="sno">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
@@ -383,8 +377,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{316E9B23-4F99-484E-8E39-8B178B0BB26B}" name="Table26" displayName="Table26" ref="A1:G10" totalsRowShown="0">
-  <autoFilter ref="A1:G10" xr:uid="{8AB8FB23-609C-4CD8-A0AC-E414C0C2AAF9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{316E9B23-4F99-484E-8E39-8B178B0BB26B}" name="Table26" displayName="Table26" ref="A1:G11" totalsRowShown="0">
+  <autoFilter ref="A1:G11" xr:uid="{8AB8FB23-609C-4CD8-A0AC-E414C0C2AAF9}"/>
   <tableColumns count="7">
     <tableColumn id="4" xr3:uid="{6F9AFF6F-8A62-4A81-BC70-5DB015242A68}" name="sno">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
@@ -705,27 +699,27 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -746,13 +740,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -768,7 +762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -776,27 +770,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -813,31 +807,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85C3966-42D7-428B-A7F5-341B375F5022}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D1" t="s">
@@ -853,67 +847,61 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f t="shared" ref="A2:A7" si="0">ROW(A1)</f>
+        <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>SUBSTITUTE(B2," ", "")</f>
+        <v>Sno</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f>ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="str">
-        <f t="shared" ref="C2:C7" si="1">SUBSTITUTE(B2," ", "")</f>
+      <c r="C3" s="3" t="str">
+        <f t="shared" ref="C3:C8" si="0">SUBSTITUTE(B3," ", "")</f>
         <v>Date</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" ref="A4:A8" si="1">ROW(A3)</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>OrderReference</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Model</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -925,42 +913,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Color</v>
+        <v>Model</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Line</v>
+        <v>Color</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -975,79 +963,53 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>ActualQty</v>
+        <v>Line</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ActualQty</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.45"/>
-    <row r="10" spans="1:7" ht="14.45"/>
-    <row r="11" spans="1:7" ht="14.45"/>
-    <row r="12" spans="1:7" ht="14.45"/>
-    <row r="13" spans="1:7" ht="14.45"/>
-    <row r="14" spans="1:7" ht="14.45"/>
-    <row r="15" spans="1:7" ht="14.45"/>
-    <row r="16" spans="1:7" ht="14.45"/>
-    <row r="17" ht="14.45"/>
-    <row r="18" ht="14.45"/>
-    <row r="19" ht="14.45"/>
-    <row r="20" ht="14.45"/>
-    <row r="21" ht="14.45"/>
-    <row r="22" ht="14.45"/>
-    <row r="23" ht="14.45"/>
-    <row r="24" ht="14.45"/>
-    <row r="25" ht="14.45"/>
-    <row r="26" ht="14.45"/>
-    <row r="27" ht="14.45"/>
-    <row r="28" ht="14.45"/>
-    <row r="29" ht="14.45"/>
-    <row r="30" ht="14.45"/>
-    <row r="31" ht="14.45"/>
-    <row r="32" ht="14.45"/>
-    <row r="33" ht="14.45"/>
-    <row r="34" ht="14.45"/>
-    <row r="35" ht="14.45"/>
-    <row r="36" ht="14.45"/>
-    <row r="37" ht="14.45"/>
-    <row r="38" ht="14.45"/>
-    <row r="39" ht="14.45"/>
-    <row r="40" ht="14.45"/>
-    <row r="41" ht="14.45"/>
-    <row r="42" ht="14.45"/>
-    <row r="43" ht="14.45"/>
-    <row r="44" ht="14.45"/>
-    <row r="45" ht="14.45"/>
-    <row r="46" ht="14.45"/>
-    <row r="47" ht="14.45"/>
-    <row r="48" ht="14.45"/>
-    <row r="49" ht="14.45"/>
-    <row r="50" ht="14.45"/>
-    <row r="51" ht="14.45"/>
-    <row r="52" ht="14.45"/>
-    <row r="53" ht="14.45"/>
-    <row r="54" ht="14.45"/>
-    <row r="55" ht="14.45"/>
-    <row r="56" ht="14.45"/>
-    <row r="57" ht="14.45"/>
-    <row r="58" ht="14.45"/>
-    <row r="59" ht="14.45"/>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1062,19 +1024,19 @@
           <x14:formula1>
             <xm:f>DataType!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D7</xm:sqref>
+          <xm:sqref>D2:D8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC13B122-0353-479E-AD29-5F38F6ABAEFB}">
           <x14:formula1>
             <xm:f>Config!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E7</xm:sqref>
+          <xm:sqref>E2:E8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D21AA5E9-6AA2-4B7F-8870-FA08A2ABF8C4}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G7</xm:sqref>
+          <xm:sqref>G2:G8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1087,28 +1049,28 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D1" t="s">
@@ -1124,95 +1086,86 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f t="shared" ref="A2:A10" si="0">ROW(A1)</f>
+        <f>ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>SUBSTITUTE(B2," ", "")</f>
+        <v>SNo</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f>ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="str">
-        <f t="shared" ref="C2:C10" si="1">SUBSTITUTE(B2," ", "")</f>
+      <c r="C3" s="3" t="str">
+        <f t="shared" ref="C3:C11" si="0">SUBSTITUTE(B3," ", "")</f>
         <v>OrderReference</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2">
-        <v>200</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15">
-      <c r="A3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Model</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
+      <c r="F3" s="2">
+        <v>200</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
+        <f t="shared" ref="A4:A11" si="1">ROW(A3)</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="str">
         <f t="shared" si="0"/>
+        <v>Model</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Color</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Line</v>
+        <v>Color</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -1224,105 +1177,108 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DailyTarget</v>
+        <v>Line</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Days</v>
+        <v>DailyTarget</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>TotalTarget</v>
+        <v>Days</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TotalTarget</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15">
-      <c r="A9">
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>FromDate</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>ToDate</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -1334,7 +1290,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ToDate</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1349,19 +1326,19 @@
           <x14:formula1>
             <xm:f>Config!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G10</xm:sqref>
+          <xm:sqref>G2:G11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{49B1B0E5-6699-4346-9E00-C56F68194EBA}">
           <x14:formula1>
             <xm:f>Config!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E10</xm:sqref>
+          <xm:sqref>E2:E11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{62DC9C24-3697-416B-A6D9-E6521407B2B6}">
           <x14:formula1>
             <xm:f>DataType!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D10</xm:sqref>
+          <xm:sqref>D2:D11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
